--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t xml:space="preserve">Main.cpp fixed visualization and updated class diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started with YOLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main.cpp fixed tf and started segmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t remove python 3.6 from ubuntu!</t>
   </si>
 </sst>
 </file>
@@ -245,7 +254,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -438,6 +447,15 @@
       <c r="A17" s="4" t="n">
         <v>43746</v>
       </c>
+      <c r="B17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">Don’t remove python 3.6 from ubuntu!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting up YOLO</t>
   </si>
 </sst>
 </file>
@@ -251,10 +254,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -461,6 +464,19 @@
       <c r="A18" s="4" t="n">
         <v>43747</v>
       </c>
+      <c r="B18" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <v>43775</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -131,6 +131,27 @@
   </si>
   <si>
     <t xml:space="preserve">Setting up YOLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on implementing segmentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little fixes on filters and continued in YOLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed table segmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removing 0 0 0 points improves TF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continued YOLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed object segmentation and added PCD filters and cleaned up code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to the quality of the PCD it determines the quality of the TF. Bad PCD’ s make the TF twist</t>
   </si>
 </sst>
 </file>
@@ -254,10 +275,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -467,15 +488,41 @@
       <c r="B18" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="C18" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>43774</v>
       </c>
+      <c r="B19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <v>43775</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>43776</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">Due to the quality of the PCD it determines the quality of the TF. Bad PCD’ s make the TF twist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed YOLO with objects</t>
   </si>
 </sst>
 </file>
@@ -277,8 +280,8 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -524,6 +527,9 @@
       <c r="A21" s="4" t="n">
         <v>43776</v>
       </c>
+      <c r="B21" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fixed YOLO with objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated class diagram and added get TF class</t>
   </si>
 </sst>
 </file>
@@ -281,7 +284,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -530,6 +533,9 @@
       <c r="B21" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="C21" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">Updated class diagram and added get TF class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">made new pictures of the objects from different heights</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -536,6 +539,9 @@
       <c r="C21" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="D21" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -161,6 +161,21 @@
   </si>
   <si>
     <t xml:space="preserve">made new pictures of the objects from different heights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished ROS tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinstalled laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version management ROS with Realsense SDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaned up code, added system time check, updated research doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realsense-ROS version 2.2.9 | Realsense SDK version 2.29.0</t>
   </si>
 </sst>
 </file>
@@ -284,10 +299,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -543,6 +558,36 @@
         <v>46</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>43777</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>43781</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
+        <v>43782</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t xml:space="preserve">Realsense-ROS version 2.2.9 | Realsense SDK version 2.29.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed ROS with Realsense SDK, started ROS research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished getTF, updated class diagram</t>
   </si>
 </sst>
 </file>
@@ -302,7 +308,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -587,6 +593,12 @@
       <c r="A24" s="4" t="n">
         <v>43782</v>
       </c>
+      <c r="B24" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t xml:space="preserve">Finished getTF, updated class diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started ROS with pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TF calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We might not need Realsense-ROS because the pipeline is already up and running</t>
   </si>
 </sst>
 </file>
@@ -305,10 +314,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -600,6 +609,25 @@
         <v>53</v>
       </c>
     </row>
+    <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <v>43788</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>43789</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -184,13 +184,37 @@
     <t xml:space="preserve">Finished getTF, updated class diagram</t>
   </si>
   <si>
-    <t xml:space="preserve">Started ROS with pipeline</t>
+    <t xml:space="preserve">Started ROS with yolo</t>
   </si>
   <si>
     <t xml:space="preserve">TF calculation</t>
   </si>
   <si>
     <t xml:space="preserve">We might not need Realsense-ROS because the pipeline is already up and running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continued with ROS yolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TF broadcaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated pipeline into main and started with code for testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started with ROS yolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeroen took ROS yolo over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed calculation of the angle of an object and finished code for testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continued ROS yolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test data is saved in .csv file that is in the build folder</t>
   </si>
 </sst>
 </file>
@@ -314,10 +338,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -627,6 +651,40 @@
       <c r="A26" s="4" t="n">
         <v>43789</v>
       </c>
+      <c r="B26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>43795</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="n">
+        <v>43796</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -202,7 +202,7 @@
     <t xml:space="preserve">Integrated pipeline into main and started with code for testing</t>
   </si>
   <si>
-    <t xml:space="preserve">Started with ROS yolo</t>
+    <t xml:space="preserve">Started with ROS yolo and fixed client server</t>
   </si>
   <si>
     <t xml:space="preserve">Jeroen took ROS yolo over</t>
@@ -341,7 +341,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -215,6 +215,15 @@
   </si>
   <si>
     <t xml:space="preserve">test data is saved in .csv file that is in the build folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated pipeline into ROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed client service with images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated client service into main</t>
   </si>
 </sst>
 </file>
@@ -338,10 +347,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -686,6 +695,35 @@
         <v>64</v>
       </c>
     </row>
+    <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="n">
+        <v>43801</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="n">
+        <v>43802</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="n">
+        <v>43803</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -223,7 +223,19 @@
     <t xml:space="preserve">Fixed client service with images</t>
   </si>
   <si>
+    <t xml:space="preserve">Started testplan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Integrated client service into main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continued with testplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on integration yolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv_bridge doesn’ t work with python3, yolo only works with python3. We chose to use a communication protocol made by Merian</t>
   </si>
 </sst>
 </file>
@@ -350,7 +362,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -710,13 +722,25 @@
       <c r="A30" s="4" t="n">
         <v>43801</v>
       </c>
+      <c r="B30" s="0" t="s">
+        <v>67</v>
+      </c>
       <c r="C30" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
         <v>43802</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -236,6 +236,15 @@
   </si>
   <si>
     <t xml:space="preserve">cv_bridge doesn’ t work with python3, yolo only works with python3. We chose to use a communication protocol made by Merian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research YOLO in C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started documentation + visitation company for robohub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yolo is not in c++ without wrapper so we stay with the yolo we currently use and fix the communication with Marian</t>
   </si>
 </sst>
 </file>
@@ -359,7 +368,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
@@ -747,6 +756,25 @@
       <c r="A32" s="4" t="n">
         <v>43803</v>
       </c>
+      <c r="B32" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="n">
+        <v>43809</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="n">
+        <v>43810</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -245,6 +245,24 @@
   </si>
   <si>
     <t xml:space="preserve">Yolo is not in c++ without wrapper so we stay with the yolo we currently use and fix the communication with Marian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing preperations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work for RoboHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processing test data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed roi vectors in main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrating cut_filter</t>
   </si>
 </sst>
 </file>
@@ -368,10 +386,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -770,10 +788,46 @@
       <c r="A33" s="4" t="n">
         <v>43809</v>
       </c>
+      <c r="B33" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
         <v>43810</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="n">
+        <v>43815</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="n">
+        <v>43816</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="n">
+        <v>43817</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t xml:space="preserve">Integrating cut_filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing, processing test data and working on documentation</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -305,6 +308,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -348,7 +357,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -367,6 +376,10 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -389,7 +402,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -829,6 +842,12 @@
       <c r="A37" s="4" t="n">
         <v>43817</v>
       </c>
+      <c r="B37" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t xml:space="preserve">Testing, processing test data and working on documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed YOLO Cut_filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you change data from pointers, make a copy of the data when you need to use the original data afterwards. Give a crate of beer to RDB ;)</t>
   </si>
 </sst>
 </file>
@@ -277,7 +283,7 @@
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -308,12 +314,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -378,7 +378,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -399,10 +399,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -849,6 +849,20 @@
         <v>81</v>
       </c>
     </row>
+    <row r="38" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="n">
+        <v>43818</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t xml:space="preserve">When you change data from pointers, make a copy of the data when you need to use the original data afterwards. Give a crate of beer to RDB ;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added comments into code, changed name convention in main and worked on report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on report</t>
   </si>
 </sst>
 </file>
@@ -399,10 +405,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -863,6 +869,27 @@
         <v>83</v>
       </c>
     </row>
+    <row r="39" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="n">
+        <v>43822</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="n">
+        <v>43823</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="n">
+        <v>43829</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/docs/Logbook.xlsx
+++ b/docs/Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t xml:space="preserve">Worked on report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found that there is a problem with the cut filter. It has a variable offset relative to the ROI that is given.</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -889,6 +892,42 @@
       <c r="A41" s="4" t="n">
         <v>43829</v>
       </c>
+      <c r="B41" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="n">
+        <v>43832</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="n">
+        <v>43833</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
